--- a/documentation/StormTrigger_BOM.xlsx
+++ b/documentation/StormTrigger_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>ref</t>
   </si>
@@ -194,9 +194,6 @@
     <t>R15</t>
   </si>
   <si>
-    <t>37.9k</t>
-  </si>
-  <si>
     <t>R16</t>
   </si>
   <si>
@@ -324,6 +321,12 @@
   </si>
   <si>
     <t>distributor</t>
+  </si>
+  <si>
+    <t>38.3k</t>
+  </si>
+  <si>
+    <t>Sub-total</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,8 +668,8 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -674,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -686,19 +689,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,16 +717,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
         <v>2307358</v>
       </c>
-      <c r="H2">
-        <f>I2/10</f>
-        <v>5.9499999999999996E-3</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.9499999999999997E-2</v>
       </c>
     </row>
@@ -740,16 +739,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>9335749</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H42" si="0">I3/10</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -766,16 +761,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>2497075</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>3.8199999999999996E-3</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
@@ -792,16 +783,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2">
         <v>2497075</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>3.8199999999999996E-3</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
@@ -818,16 +805,12 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>2497075</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>3.8199999999999996E-3</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
@@ -844,16 +827,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2">
         <v>9335765</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.8E-3</v>
       </c>
     </row>
@@ -870,16 +849,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>2456113</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
@@ -896,16 +871,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2">
         <v>2307454</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>2.9499999999999999E-3</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
@@ -922,25 +893,21 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2">
         <v>2307455</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.10295000000000001</v>
-      </c>
-      <c r="I10">
-        <v>1.0295000000000001</v>
+      <c r="J10">
+        <v>2.9499999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -948,37 +915,29 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>9335757</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -994,11 +953,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2284949</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.4399999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,16 +975,12 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2">
         <v>2456115</v>
       </c>
-      <c r="H14">
-        <f>J14/5</f>
-        <v>1.142E-2</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
@@ -1040,16 +997,12 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>2456115</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H18" si="1">J15/5</f>
-        <v>1.142E-2</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
@@ -1066,16 +1019,12 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2">
         <v>2456115</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1.142E-2</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
@@ -1092,16 +1041,12 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2">
         <v>2456115</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>1.142E-2</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
@@ -1118,25 +1063,21 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>2456115</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>1.142E-2</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
@@ -1144,25 +1085,21 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="2">
         <v>9336362</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
         <v>3.8E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
@@ -1170,25 +1107,21 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2">
         <v>9336363</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1.0038</v>
+      <c r="I20">
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
@@ -1196,17 +1129,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="2">
         <v>9336364</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>2.0038</v>
+      <c r="I21">
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1214,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
@@ -1222,31 +1151,29 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2142267</v>
+      </c>
+      <c r="J22">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,16 +1189,12 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="2">
         <v>2524928</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>7.6799999999999993E-3</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
@@ -1288,19 +1211,21 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1864082</v>
+      </c>
+      <c r="I25">
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -1308,25 +1233,21 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="2">
         <v>2142224</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>45</v>
@@ -1334,25 +1255,21 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="2">
         <v>2142225</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0.10042999999999999</v>
-      </c>
-      <c r="I27">
-        <v>1.0043</v>
+      <c r="J27">
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
@@ -1360,16 +1277,12 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="2">
         <v>2142225</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I28">
+      <c r="J28">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1386,16 +1299,12 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29" s="2">
         <v>2069191</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.219</v>
       </c>
     </row>
@@ -1412,25 +1321,21 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" s="2">
         <v>2069191</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.219</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>45</v>
@@ -1438,25 +1343,21 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="2">
         <v>2142071</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>45</v>
@@ -1464,20 +1365,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2">
         <v>2142230</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="I32">
+      <c r="J32">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1490,14 +1387,16 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2142232</v>
+      </c>
+      <c r="J33">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1512,14 +1411,16 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1431319</v>
+      </c>
+      <c r="I34">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1534,14 +1435,16 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1431319</v>
+      </c>
+      <c r="I35">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1556,14 +1459,16 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1431319</v>
+      </c>
+      <c r="I36">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -1576,74 +1481,82 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1267372</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G38" s="2">
+        <v>7527482</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2514096</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2464255</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,14 +1569,16 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1045380</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -1676,27 +1591,29 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1003232</v>
+      </c>
+      <c r="I42">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="3">
         <v>2215058</v>
@@ -1705,57 +1622,69 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1234739</v>
+      </c>
+      <c r="H45">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2524308</v>
+      </c>
+      <c r="H46">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1763,20 +1692,35 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H47">
         <f>SUM(H2:H46)</f>
-        <v>1.5082199999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.2393999999999998</v>
+      </c>
+      <c r="I47">
+        <f>SUM(I2:I46)</f>
+        <v>1.4039000000000001</v>
+      </c>
+      <c r="J47">
+        <f>SUM(J2:J46)</f>
+        <v>0.8194999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
+      <c r="G48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48">
+        <f>SUM(H47:J47)</f>
+        <v>11.4628</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>

--- a/documentation/StormTrigger_BOM.xlsx
+++ b/documentation/StormTrigger_BOM.xlsx
@@ -15,6 +15,7 @@
     <sheet name="StormTrigger_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>ref</t>
   </si>
@@ -167,9 +168,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>8.25k</t>
-  </si>
-  <si>
     <t>R11</t>
   </si>
   <si>
@@ -251,9 +249,6 @@
     <t>R9</t>
   </si>
   <si>
-    <t>38.5k</t>
-  </si>
-  <si>
     <t>SP1</t>
   </si>
   <si>
@@ -327,6 +322,30 @@
   </si>
   <si>
     <t>Sub-total</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>4,99k</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>USER/AUTO</t>
+  </si>
+  <si>
+    <t>OFF/ON</t>
+  </si>
+  <si>
+    <t>SPST</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>38,3k</t>
   </si>
 </sst>
 </file>
@@ -348,15 +367,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -364,15 +389,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J319"/>
+  <dimension ref="A1:J321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -689,71 +795,71 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2">
-        <v>2307358</v>
+        <v>2524928</v>
       </c>
       <c r="J2">
-        <v>5.9499999999999997E-2</v>
+        <v>7.6799999999999993E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2">
-        <v>9335749</v>
+        <v>2497075</v>
       </c>
       <c r="J3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8199999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -761,13 +867,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2">
-        <v>2497075</v>
-      </c>
-      <c r="J4">
-        <v>3.8199999999999998E-2</v>
+        <v>2456115</v>
+      </c>
+      <c r="I4">
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,7 +889,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2">
         <v>2497075</v>
@@ -794,10 +900,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -805,43 +911,43 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2">
-        <v>2497075</v>
-      </c>
-      <c r="J6">
-        <v>3.8199999999999998E-2</v>
+        <v>2456115</v>
+      </c>
+      <c r="I6">
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>9335765</v>
-      </c>
-      <c r="J7">
-        <v>3.8E-3</v>
+        <v>2456115</v>
+      </c>
+      <c r="I7">
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -849,301 +955,313 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2">
-        <v>2456113</v>
-      </c>
-      <c r="J8">
-        <v>2.3599999999999999E-2</v>
+        <v>2456115</v>
+      </c>
+      <c r="I8">
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" s="2">
-        <v>2307454</v>
+        <v>2456113</v>
       </c>
       <c r="J9">
-        <v>2.9499999999999998E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2">
-        <v>2307455</v>
+        <v>2069191</v>
       </c>
       <c r="J10">
-        <v>2.9499999999999998E-2</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="2">
-        <v>9335757</v>
+        <v>2497075</v>
       </c>
       <c r="J11">
-        <v>3.7000000000000002E-3</v>
+        <v>3.8199999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2069191</v>
+      </c>
+      <c r="J12">
+        <v>0.219</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2">
-        <v>2284949</v>
-      </c>
-      <c r="H13">
-        <v>7.4399999999999994E-2</v>
+        <v>2456115</v>
+      </c>
+      <c r="I13">
+        <v>5.7099999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2">
-        <v>2456115</v>
-      </c>
-      <c r="I14">
-        <v>5.7099999999999998E-2</v>
+        <v>2284949</v>
+      </c>
+      <c r="H14">
+        <v>7.4399999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2">
-        <v>2456115</v>
+        <v>1003232</v>
       </c>
       <c r="I15">
-        <v>5.7099999999999998E-2</v>
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2">
-        <v>2456115</v>
-      </c>
-      <c r="I16">
-        <v>5.7099999999999998E-2</v>
+        <v>1267372</v>
+      </c>
+      <c r="H16">
+        <v>0.873</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2">
-        <v>2456115</v>
+        <v>1864082</v>
       </c>
       <c r="I17">
-        <v>5.7099999999999998E-2</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2">
-        <v>2456115</v>
-      </c>
-      <c r="I18">
-        <v>5.7099999999999998E-2</v>
+        <v>1045380</v>
+      </c>
+      <c r="H18">
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" s="2">
-        <v>9336362</v>
+        <v>1431319</v>
       </c>
       <c r="I19">
-        <v>3.8E-3</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="2">
-        <v>9336363</v>
+        <v>1431319</v>
       </c>
       <c r="I20">
-        <v>3.8E-3</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2">
-        <v>9336364</v>
+        <v>1431319</v>
       </c>
       <c r="I21">
-        <v>3.8E-3</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
@@ -1151,10 +1269,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2">
-        <v>2142267</v>
+        <v>9335749</v>
       </c>
       <c r="J22">
         <v>4.0000000000000001E-3</v>
@@ -1162,70 +1280,76 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2142220</v>
+      </c>
+      <c r="J23">
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2">
-        <v>2524928</v>
+        <v>2307358</v>
       </c>
       <c r="J24">
-        <v>7.6799999999999993E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2">
-        <v>1864082</v>
-      </c>
-      <c r="I25">
-        <v>0.36599999999999999</v>
+        <v>2307454</v>
+      </c>
+      <c r="J25">
+        <v>2.9499999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -1233,21 +1357,21 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G26" s="2">
-        <v>2142224</v>
+        <v>2307455</v>
       </c>
       <c r="J26">
-        <v>4.3E-3</v>
+        <v>2.9499999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>45</v>
@@ -1255,21 +1379,21 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G27" s="2">
-        <v>2142225</v>
+        <v>9335765</v>
       </c>
       <c r="J27">
-        <v>4.3E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
@@ -1277,10 +1401,10 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G28" s="2">
-        <v>2142225</v>
+        <v>2142267</v>
       </c>
       <c r="J28">
         <v>4.0000000000000001E-3</v>
@@ -1288,54 +1412,54 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G29" s="2">
-        <v>2069191</v>
+        <v>2142071</v>
       </c>
       <c r="J29">
-        <v>0.219</v>
+        <v>1.1299999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G30" s="2">
-        <v>2069191</v>
+        <v>2142224</v>
       </c>
       <c r="J30">
-        <v>0.219</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>45</v>
@@ -1343,21 +1467,21 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2">
-        <v>2142071</v>
-      </c>
-      <c r="J31">
-        <v>1.1299999999999999E-2</v>
+        <v>9336362</v>
+      </c>
+      <c r="I31">
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>45</v>
@@ -1365,21 +1489,21 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="2">
-        <v>2142230</v>
+        <v>2142267</v>
       </c>
       <c r="J32">
-        <v>4.3E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
@@ -1387,225 +1511,219 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2">
-        <v>2142232</v>
+        <v>2142225</v>
       </c>
       <c r="J33">
-        <v>4.3E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="2">
-        <v>1431319</v>
-      </c>
-      <c r="I34">
-        <v>0.16800000000000001</v>
+        <v>9335757</v>
+      </c>
+      <c r="J34">
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" s="2">
-        <v>1431319</v>
-      </c>
-      <c r="I35">
-        <v>0.16800000000000001</v>
+        <v>1771729</v>
+      </c>
+      <c r="H35">
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G36" s="2">
-        <v>1431319</v>
-      </c>
-      <c r="I36">
-        <v>0.16800000000000001</v>
+        <v>2142230</v>
+      </c>
+      <c r="J36">
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G37" s="2">
-        <v>1267372</v>
-      </c>
-      <c r="H37">
-        <v>0.873</v>
+        <v>9336363</v>
+      </c>
+      <c r="I37">
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G38" s="2">
-        <v>7527482</v>
-      </c>
-      <c r="H38">
-        <v>0.22</v>
+        <v>2142225</v>
+      </c>
+      <c r="J38">
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G39" s="2">
-        <v>2514096</v>
-      </c>
-      <c r="H39">
-        <v>4.8099999999999996</v>
+        <v>2142220</v>
+      </c>
+      <c r="J39">
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" s="2">
-        <v>2464255</v>
+        <v>1760792</v>
       </c>
       <c r="H40">
-        <v>0.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1045380</v>
+        <v>93</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2215058</v>
       </c>
       <c r="H41">
-        <v>0.52500000000000002</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1003232</v>
-      </c>
-      <c r="I42">
-        <v>0.23699999999999999</v>
+        <v>93</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1634650</v>
+      </c>
+      <c r="H42">
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>77</v>
@@ -1613,13 +1731,13 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2215058</v>
+        <v>93</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9473432</v>
       </c>
       <c r="H43">
-        <v>1.17</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1635,23 +1753,29 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2514096</v>
+      </c>
+      <c r="H44">
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2">
         <v>1234739</v>
@@ -1662,83 +1786,113 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G46" s="2">
-        <v>2524308</v>
+        <v>2464255</v>
       </c>
       <c r="H46">
-        <v>0.46200000000000002</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2" t="s">
-        <v>100</v>
+      <c r="F47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7527482</v>
       </c>
       <c r="H47">
-        <f>SUM(H2:H46)</f>
-        <v>9.2393999999999998</v>
-      </c>
-      <c r="I47">
-        <f>SUM(I2:I46)</f>
-        <v>1.4039000000000001</v>
-      </c>
-      <c r="J47">
-        <f>SUM(J2:J46)</f>
-        <v>0.8194999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2" t="s">
-        <v>97</v>
+      <c r="F48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2524308</v>
       </c>
       <c r="H48">
-        <f>SUM(H47:J47)</f>
-        <v>11.4628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="5">
+        <f>SUM(H2:H48)</f>
+        <v>13.0084</v>
+      </c>
+      <c r="I49" s="5">
+        <f>SUM(I2:I48)</f>
+        <v>1.4000999999999999</v>
+      </c>
+      <c r="J49" s="6">
+        <f>SUM(J2:J48)</f>
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="10">
+        <f>SUM(H49:J49)</f>
+        <v>15.2355</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1746,7 +1900,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1754,7 +1908,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1762,7 +1916,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1770,7 +1924,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1778,7 +1932,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1786,7 +1940,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1794,7 +1948,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1802,7 +1956,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1810,7 +1964,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1818,7 +1972,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1826,7 +1980,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1834,7 +1988,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1842,7 +1996,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3890,10 +4044,23 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
     </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:I319">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
